--- a/Data/Raw/Products.xlsx
+++ b/Data/Raw/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consumer-trust-In-E-Commerce-In-India\Data\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B24E59-43F8-4E12-AF80-7F34CABEA277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C08D514-8181-4C21-9B3B-49FE458D0B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4C1C66E-71F6-4D32-B336-8E55282682C5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>Number</t>
   </si>
@@ -150,12 +150,6 @@
     <t>HP 14q APU Dual Core A9 A9-9425 - (4 GB/256 GB SSD/Windows 10 Home) 14q-cy0006AU Thin and Light Laptop  (14 inch, Jet Black, 1.47 kg)</t>
   </si>
   <si>
-    <t>Footwear</t>
-  </si>
-  <si>
-    <t>Women Clothing</t>
-  </si>
-  <si>
     <t>Groceries</t>
   </si>
   <si>
@@ -178,6 +172,72 @@
   </si>
   <si>
     <t>BOSCH GSB 450 Wrap Set 06012161FL Pistol Grip Drill  (10 mm Chuck Size)</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>MUSCLEBLAZE Raw Whey Protein  (1 kg, Unflavored)</t>
+  </si>
+  <si>
+    <t>Gorofy Resistance Bands Set Tubes for Fitness Home Gym Exercise Workout Resistance Tube Resistance Band  (Multicolor, Pack of 11)</t>
+  </si>
+  <si>
+    <t>Rixon Global yogamat-blue 4mm mm Yoga Mat</t>
+  </si>
+  <si>
+    <t>FITKIT Classic Bottle 700 ml Shaker</t>
+  </si>
+  <si>
+    <t>NIVIA Leather with Wrist Band Gym &amp; Fitness Gloves</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Lucent's - General Knowledge 2020</t>
+  </si>
+  <si>
+    <t>Oxford Student Atlas for India</t>
+  </si>
+  <si>
+    <t>The Theory Of Everything</t>
+  </si>
+  <si>
+    <t>Quantitative Aptitude for Competitive Examinations - Quantitative Aptitude by rs agrawal </t>
+  </si>
+  <si>
+    <t>Attitude Is Everything</t>
+  </si>
+  <si>
+    <t>Happilo 100% Natural California Almonds</t>
+  </si>
+  <si>
+    <t>Clean &amp; Clear Face</t>
+  </si>
+  <si>
+    <t>HEAD &amp; SHOULDERS Smooth and Silky, Anti Dandruff Shampoo</t>
+  </si>
+  <si>
+    <t>indulekha Bhringa Hair Oil</t>
+  </si>
+  <si>
+    <t>Dabur Anmol Gold Pure Coconut Hair Oil</t>
+  </si>
+  <si>
+    <t>Aetrius Polyester Adults Mosquito Net, Polyester Foldable King Size Bed,Double Bed,Queen Size Bed with Free Saviours(Suitable for 6ft x 6ft to 6.9ft x 6.9ft) - White Mosquito Net</t>
+  </si>
+  <si>
+    <t>LA VERNE Microfibre Stripes Sleeping Pillow Pack of 2</t>
+  </si>
+  <si>
+    <t>LooMantha Fridge Mat</t>
+  </si>
+  <si>
+    <t>RECRON CERTIFIED Utopia Microfibre Solid Sleeping Pillow Pack of 2</t>
+  </si>
+  <si>
+    <t>Home Sizzler 214 cm (7 ft) Polyester Door Curtain (Pack Of 2)</t>
   </si>
 </sst>
 </file>
@@ -552,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E715AB82-A1FE-404B-ABF1-00C428482B36}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1481,10 +1541,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2">
         <v>1799</v>
@@ -1516,10 +1576,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D28" s="2">
         <v>1399</v>
@@ -1551,10 +1611,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2">
         <v>749</v>
@@ -1586,10 +1646,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2">
         <v>989</v>
@@ -1621,10 +1681,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2">
         <v>2550</v>
@@ -1656,159 +1716,699 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1549</v>
+      </c>
+      <c r="E32" s="2">
+        <v>62698</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>33816</v>
+      </c>
+      <c r="H32" s="2">
+        <v>16340</v>
+      </c>
+      <c r="I32" s="2">
+        <v>6530</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2089</v>
+      </c>
+      <c r="K32" s="2">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="2">
+        <v>239</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5025</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2306</v>
+      </c>
+      <c r="H33" s="2">
+        <v>747</v>
+      </c>
+      <c r="I33" s="2">
+        <v>651</v>
+      </c>
+      <c r="J33" s="2">
+        <v>419</v>
+      </c>
+      <c r="K33" s="2">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="2">
+        <v>372</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9411</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>3522</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1654</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1619</v>
+      </c>
+      <c r="J34" s="2">
+        <v>983</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="2">
+        <v>99</v>
+      </c>
+      <c r="E35" s="2">
+        <v>121373</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G35" s="2">
+        <v>69528</v>
+      </c>
+      <c r="H35" s="2">
+        <v>28799</v>
+      </c>
+      <c r="I35" s="2">
+        <v>13241</v>
+      </c>
+      <c r="J35" s="2">
+        <v>4295</v>
+      </c>
+      <c r="K35" s="2">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="2">
+        <v>349</v>
+      </c>
+      <c r="E36" s="2">
+        <v>17604</v>
+      </c>
+      <c r="F36" s="2">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2">
+        <v>8044</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4566</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2570</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1005</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="2">
+        <v>140</v>
+      </c>
+      <c r="E37" s="2">
+        <v>38509</v>
+      </c>
+      <c r="F37" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>25323</v>
+      </c>
+      <c r="H37" s="2">
+        <v>9010</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2524</v>
+      </c>
+      <c r="J37" s="2">
+        <v>633</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="2">
+        <v>178</v>
+      </c>
+      <c r="E38" s="2">
+        <v>38510</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G38" s="2">
+        <v>26520</v>
+      </c>
+      <c r="H38" s="2">
+        <v>8445</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2102</v>
+      </c>
+      <c r="J38" s="2">
+        <v>555</v>
+      </c>
+      <c r="K38" s="2">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="2">
+        <v>119</v>
+      </c>
+      <c r="E39" s="2">
+        <v>11585</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G39" s="2">
+        <v>8132</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2376</v>
+      </c>
+      <c r="I39" s="2">
+        <v>669</v>
+      </c>
+      <c r="J39" s="2">
+        <v>166</v>
+      </c>
+      <c r="K39" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="2">
+        <v>421</v>
+      </c>
+      <c r="E40" s="2">
+        <v>59972</v>
+      </c>
+      <c r="F40" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>38752</v>
+      </c>
+      <c r="H40" s="2">
+        <v>14169</v>
+      </c>
+      <c r="I40" s="2">
+        <v>4065</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1066</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="2">
+        <v>112</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45883</v>
+      </c>
+      <c r="F41" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>31149</v>
+      </c>
+      <c r="H41" s="2">
+        <v>10543</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2784</v>
+      </c>
+      <c r="J41" s="2">
+        <v>665</v>
+      </c>
+      <c r="K41" s="2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="2">
+        <v>206</v>
+      </c>
+      <c r="E42" s="2">
+        <v>98660</v>
+      </c>
+      <c r="F42" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G42" s="2">
+        <v>58929</v>
+      </c>
+      <c r="H42" s="2">
+        <v>26275</v>
+      </c>
+      <c r="I42" s="2">
+        <v>8345</v>
+      </c>
+      <c r="J42" s="2">
+        <v>2272</v>
+      </c>
+      <c r="K42" s="2">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="2">
+        <v>270</v>
+      </c>
+      <c r="E43" s="2">
+        <v>139995</v>
+      </c>
+      <c r="F43" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>97909</v>
+      </c>
+      <c r="H43" s="2">
+        <v>26927</v>
+      </c>
+      <c r="I43" s="2">
+        <v>8880</v>
+      </c>
+      <c r="J43" s="2">
+        <v>2747</v>
+      </c>
+      <c r="K43" s="2">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="2">
+        <v>445</v>
+      </c>
+      <c r="E44" s="2">
+        <v>146875</v>
+      </c>
+      <c r="F44" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G44" s="2">
+        <v>92925</v>
+      </c>
+      <c r="H44" s="2">
+        <v>33495</v>
+      </c>
+      <c r="I44" s="2">
+        <v>11964</v>
+      </c>
+      <c r="J44" s="2">
+        <v>3447</v>
+      </c>
+      <c r="K44" s="2">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="2">
+        <v>324</v>
+      </c>
+      <c r="E45" s="2">
+        <v>203377</v>
+      </c>
+      <c r="F45" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G45" s="2">
+        <v>112404</v>
+      </c>
+      <c r="H45" s="2">
+        <v>46408</v>
+      </c>
+      <c r="I45" s="2">
+        <v>22674</v>
+      </c>
+      <c r="J45" s="2">
+        <v>8540</v>
+      </c>
+      <c r="K45" s="2">
+        <v>13351</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="2">
+        <v>247</v>
+      </c>
+      <c r="E46" s="2">
+        <v>33669</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G46" s="2">
+        <v>20163</v>
+      </c>
+      <c r="H46" s="2">
+        <v>8338</v>
+      </c>
+      <c r="I46" s="2">
+        <v>3181</v>
+      </c>
+      <c r="J46" s="2">
+        <v>854</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="2">
+        <v>545</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3320</v>
+      </c>
+      <c r="F47" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1727</v>
+      </c>
+      <c r="H47" s="2">
+        <v>773</v>
+      </c>
+      <c r="I47" s="2">
+        <v>407</v>
+      </c>
+      <c r="J47" s="2">
+        <v>164</v>
+      </c>
+      <c r="K47" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="2">
+        <v>298</v>
+      </c>
+      <c r="E48" s="2">
+        <v>39160</v>
+      </c>
+      <c r="F48" s="2">
+        <v>4</v>
+      </c>
+      <c r="G48" s="2">
+        <v>17260</v>
+      </c>
+      <c r="H48" s="2">
+        <v>11266</v>
+      </c>
+      <c r="I48" s="2">
+        <v>6914</v>
+      </c>
+      <c r="J48" s="2">
+        <v>2118</v>
+      </c>
+      <c r="K48" s="2">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="2">
+        <v>169</v>
+      </c>
+      <c r="E49" s="2">
+        <v>54892</v>
+      </c>
+      <c r="F49" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G49" s="2">
+        <v>28174</v>
+      </c>
+      <c r="H49" s="2">
+        <v>14509</v>
+      </c>
+      <c r="I49" s="2">
+        <v>7426</v>
+      </c>
+      <c r="J49" s="2">
+        <v>2414</v>
+      </c>
+      <c r="K49" s="2">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="2">
+        <v>368</v>
+      </c>
+      <c r="E50" s="2">
+        <v>78565</v>
+      </c>
+      <c r="F50" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G50" s="2">
+        <v>42283</v>
+      </c>
+      <c r="H50" s="2">
+        <v>22162</v>
+      </c>
+      <c r="I50" s="2">
+        <v>8575</v>
+      </c>
+      <c r="J50" s="2">
+        <v>2492</v>
+      </c>
+      <c r="K50" s="2">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="2">
+        <v>299</v>
+      </c>
+      <c r="E51" s="2">
+        <v>164368</v>
+      </c>
+      <c r="F51" s="2">
+        <v>4</v>
+      </c>
+      <c r="G51" s="2">
+        <v>72780</v>
+      </c>
+      <c r="H51" s="2">
+        <v>48390</v>
+      </c>
+      <c r="I51" s="2">
+        <v>24793</v>
+      </c>
+      <c r="J51" s="2">
+        <v>8187</v>
+      </c>
+      <c r="K51" s="2">
+        <v>10218</v>
       </c>
     </row>
   </sheetData>
